--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619431.4909928651</v>
+        <v>616993.1010344481</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.10770370628332</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>185.4489462793228</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398001024</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.02170687244396</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>36.02766158664661</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>295.3789990280795</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427267</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>119.8620943363782</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1258389672501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>275.0428790940291</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>78.2968471466385</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>43.48965213379993</v>
+        <v>26.6692588683104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
-        <v>356.5845196044215</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1582,10 +1582,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>201.6766207267571</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.5262552810639</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046931</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>132.631533721667</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>228.1152860522255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.94196613734919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,13 +2795,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182141</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.02686156550048</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>63.69463930750803</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158.2081142387089</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>124.5931157466101</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1098.269433119782</v>
+        <v>1250.335715170999</v>
       </c>
       <c r="C2" t="n">
-        <v>729.3069161793701</v>
+        <v>881.3731982305874</v>
       </c>
       <c r="D2" t="n">
-        <v>371.0412175726196</v>
+        <v>523.1074996238368</v>
       </c>
       <c r="E2" t="n">
-        <v>371.0412175726196</v>
+        <v>523.1074996238368</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>523.1074996238368</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.0350494688333</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.0350494688333</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2932.30590603448</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2601.24301869091</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2248.474363420795</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1875.008605159715</v>
+        <v>2027.074887210933</v>
       </c>
       <c r="Y2" t="n">
-        <v>1484.869273183903</v>
+        <v>1636.935555235121</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.6375233676413</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="C4" t="n">
-        <v>680.6375233676413</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X4" t="n">
-        <v>680.6375233676413</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.6375233676413</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1892.963660013482</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1524.00114307307</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1165.73544446632</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>779.9471918680754</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013482</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.286999435222</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2974485372046</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2974485372046</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796243</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392126</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324621</v>
+        <v>1063.934757721592</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324621</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5967395832586</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.164776917667</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
         <v>793.22209597083</v>
@@ -5039,25 +5039,25 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5115,22 +5115,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0073801158079</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>572.0073801158079</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.025734367936</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.121697767272</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
         <v>1867.304633125007</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>846.8182155057106</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
         <v>234.6843401876502</v>
@@ -5230,19 +5230,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.667456821981</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1753.953698512126</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.536528475165</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.546977577148</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.754398433617</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5358,22 @@
         <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187003</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>868.6673633290468</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,16 +5540,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5601,10 +5601,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400672</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396758</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740956</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535069</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498109</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.825401600091</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1707.866911086565</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1418.449741049605</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1190.460190151587</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>969.6676110080573</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235163</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579361</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373474</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.149234294966</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395887</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2579373565582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2199.770229732631</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7731,13 +7731,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2321.111451512978</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.509986535919</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1812.434759880117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1557.75027167423</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0.4692260666426006</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>65.54622567957921</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.2031580732995</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>73.5937661457684</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4063010599226</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
-        <v>50.29152613728996</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>50.46102259707095</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823572</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856555</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.0583980710309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393469</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856684</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.77391660562131</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>24.02235727160254</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.8900140445881</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.26785128072342</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62386594322842</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.4331702550345</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26326,34 +26326,34 @@
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="L2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189859</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
         <v>11452.26311504085</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832939</v>
+        <v>81924.27863832914</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704775</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51568.58962479611</v>
+        <v>51568.58962479598</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316936</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316949</v>
       </c>
       <c r="E4" t="n">
         <v>12380.38756059278</v>
@@ -26451,10 +26451,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181817</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112771.654663458</v>
+        <v>-1112946.880981867</v>
       </c>
       <c r="C6" t="n">
-        <v>211012.9894175789</v>
+        <v>211012.989417579</v>
       </c>
       <c r="D6" t="n">
-        <v>211012.9894175789</v>
+        <v>211012.989417579</v>
       </c>
       <c r="E6" t="n">
-        <v>-24862.68907440164</v>
+        <v>-24908.59406996698</v>
       </c>
       <c r="F6" t="n">
-        <v>278611.586724237</v>
+        <v>278576.8487988012</v>
       </c>
       <c r="G6" t="n">
-        <v>290063.8498392777</v>
+        <v>290029.1119138419</v>
       </c>
       <c r="H6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.111913842</v>
       </c>
       <c r="I6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.111913842</v>
       </c>
       <c r="J6" t="n">
-        <v>72532.64744200044</v>
+        <v>72497.90951656442</v>
       </c>
       <c r="K6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.1119138419</v>
       </c>
       <c r="L6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="M6" t="n">
-        <v>208139.5712009486</v>
+        <v>208104.833275513</v>
       </c>
       <c r="N6" t="n">
-        <v>286986.8324835732</v>
+        <v>286952.0945581373</v>
       </c>
       <c r="O6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.111913842</v>
       </c>
       <c r="P6" t="n">
-        <v>290063.849839278</v>
+        <v>290029.1119138423</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230878</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625287693</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237146</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="F4" t="n">
         <v>12.5629977736412</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237146</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
         <v>12.5629977736412</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237146</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
         <v>12.5629977736412</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984588</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.62882210863776</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>111.4970467136319</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390313</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.3497438692346</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>62.39715936934087</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>106.8874909782327</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>332.624878506815</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>243.0333462027911</v>
+        <v>259.8537394682806</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-2.034586771846195e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29515,13 +29515,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>224.5992094522571</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -32078,25 +32078,25 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139914</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>318.3985571819327</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.689256441856</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>210.3948924365567</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34460,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.00296500781268</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396324</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>176.2645232599144</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789208</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899059</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>68.26085851453838</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>434.2980917413143</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
